--- a/excels/localize/tooltip_buff.xlsx
+++ b/excels/localize/tooltip_buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>index  下标</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>获得攻击力</t>
+  </si>
+  <si>
+    <t>innate_abaddon</t>
+  </si>
+  <si>
+    <t>诅咒</t>
+  </si>
+  <si>
+    <t>攻击对敌人八嘎</t>
   </si>
 </sst>
 </file>
@@ -1108,15 +1117,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
@@ -1163,6 +1172,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excels/localize/tooltip_buff.xlsx
+++ b/excels/localize/tooltip_buff.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>index  下标</t>
   </si>
@@ -69,6 +69,84 @@
   </si>
   <si>
     <t>攻击对敌人八嘎</t>
+  </si>
+  <si>
+    <t>altar_effect_1</t>
+  </si>
+  <si>
+    <t>光明圣坛</t>
+  </si>
+  <si>
+    <t>每击杀一个敌军单位恢复该单位最大生命值的血量</t>
+  </si>
+  <si>
+    <t>altar_effect_2</t>
+  </si>
+  <si>
+    <t>神速圣坛</t>
+  </si>
+  <si>
+    <t>移动速度提高100%%，且免疫减速效果</t>
+  </si>
+  <si>
+    <t>altar_effect_3</t>
+  </si>
+  <si>
+    <t>寒冰圣坛</t>
+  </si>
+  <si>
+    <t>冻结玩家英雄半径1000码的所有单位（BOSS除外），被冻结的单位受到伤害时可解冻</t>
+  </si>
+  <si>
+    <t>altar_effect_4</t>
+  </si>
+  <si>
+    <t>雷霆圣坛</t>
+  </si>
+  <si>
+    <t>每秒回蓝200，技能急速+500，冷却上限提高45%%</t>
+  </si>
+  <si>
+    <t>altar_effect_5</t>
+  </si>
+  <si>
+    <t>炙热圣坛</t>
+  </si>
+  <si>
+    <t>造成的伤害翻倍（最终结算）</t>
+  </si>
+  <si>
+    <t>altar_effect_6</t>
+  </si>
+  <si>
+    <t>神圣圣坛</t>
+  </si>
+  <si>
+    <t>免疫所有伤害</t>
+  </si>
+  <si>
+    <t>altar_effect_7</t>
+  </si>
+  <si>
+    <t>经验圣坛</t>
+  </si>
+  <si>
+    <t>击杀的所有单位经验值掉落翻倍</t>
+  </si>
+  <si>
+    <t>altar_effect_8</t>
+  </si>
+  <si>
+    <t>灵魂圣坛</t>
+  </si>
+  <si>
+    <t>击杀的所有单位灵魂掉落翻倍</t>
+  </si>
+  <si>
+    <t>altar_effect_9</t>
+  </si>
+  <si>
+    <t>神秘圣坛</t>
   </si>
 </sst>
 </file>
@@ -781,9 +859,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1117,47 +1198,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="3" max="3" width="46.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" ht="33" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1168,7 +1249,7 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1179,8 +1260,104 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
